--- a/public/xlsx/koe/usuarios-catalogo-KOE.xlsx
+++ b/public/xlsx/koe/usuarios-catalogo-KOE.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25825"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11113"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEAC92F2-31B2-4125-8C46-B5EAA8BE69AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sernar/GITHUB/vmlyr/trade/src/xlsx/koe/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7316135-5972-7F4E-A1C5-8E01BD524AD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="34900" yWindow="5200" windowWidth="16520" windowHeight="9400" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -94,7 +99,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,7 +142,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -154,7 +159,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -453,16 +458,16 @@
   <dimension ref="A1:B10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="18.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="32.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="18.5" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.5" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,7 +475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -478,7 +483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>4</v>
       </c>
@@ -486,7 +491,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>6</v>
       </c>
@@ -494,7 +499,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" spans="1:2">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -502,7 +507,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" spans="1:2">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>10</v>
       </c>
@@ -510,7 +515,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" spans="1:2">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -518,7 +523,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:2">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>14</v>
       </c>
@@ -526,7 +531,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:2">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -534,7 +539,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" spans="1:2">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>18</v>
       </c>
